--- a/MB_samples/results/name_check_m.xlsx
+++ b/MB_samples/results/name_check_m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katerynapantiukh/Documents/1MyDisk/PhD/2022_Assembly_vs_Profiling/2022_Microbiome_Assembly_vs_Profiling/MB_samples/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A57A28-E142-9249-B740-1BB8EE1CF486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0627B-3460-934C-8CB9-F9640EC4BB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="560" windowWidth="10000" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="10000" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
